--- a/tiempos.xlsx
+++ b/tiempos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Documents\UNLaM\2024 Segundo cuatrimestre\Algoritmos y Estructuras de Datos\Yo\TP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF34909-2B56-4A71-A993-2C833B7A7512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1951E61F-1CF3-4CAF-9A33-635FE46A4562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="336" windowWidth="21528" windowHeight="12660" xr2:uid="{EA43530E-0890-4FCB-A21A-6B9A97CFC31F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{EA43530E-0890-4FCB-A21A-6B9A97CFC31F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>IMPLEMENTACIÓN</t>
   </si>
@@ -65,23 +65,35 @@
     <t>TAMAÑO FEED</t>
   </si>
   <si>
-    <t>TIEMPO DE PROCESAMIENTO</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>0,078 seg</t>
+    <t>TIEMPO DE PROCESAMIENTO (en segundos)</t>
   </si>
   <si>
-    <t>0,138 seg</t>
+    <t>PROBABILIDAD DE ACIERTO EN CACHÉ (asumiendo que está llena)</t>
+  </si>
+  <si>
+    <t>Tiempo para procesar un usuario</t>
+  </si>
+  <si>
+    <t>Tiempo para procesar un posteo</t>
+  </si>
+  <si>
+    <t>0,00003376 seg</t>
+  </si>
+  <si>
+    <t>0,000001688 seg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +104,21 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -112,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -135,24 +162,295 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -484,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B817E440-6C20-4DA4-983C-5C18F8D250F4}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,12 +795,15 @@
     <col min="3" max="3" width="27.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.5546875" style="1"/>
-    <col min="7" max="7" width="32.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="1"/>
+    <col min="7" max="7" width="42.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="20" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -519,77 +820,766 @@
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>200</v>
+      </c>
+      <c r="C3" s="12">
+        <v>4000</v>
+      </c>
+      <c r="D3" s="12">
+        <v>20</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>199</v>
+      </c>
+      <c r="G3" s="22">
+        <f>B3/($F$3+1)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="13">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="9">
+        <v>150</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="21">
+        <f>B4/($F$3+1)</f>
+        <v>0.75</v>
+      </c>
+      <c r="H4" s="14">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="9">
+        <v>100</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="21">
+        <f>B5/($F$3+1)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="9">
+        <v>50</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="21">
+        <f>B6/($F$3+1)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="21">
+        <f>B7/($F$3+1)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>150</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4000</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B9" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="12">
         <v>20</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E9" s="12">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
-        <v>199</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="F9" s="12">
+        <v>49999</v>
+      </c>
+      <c r="G9" s="22">
+        <f>B9/($F$9+1)</f>
+        <v>0.02</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.42799999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="9">
+        <v>500</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="21">
+        <f>B10/($F$9+1)</f>
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="9">
+        <v>200</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="21">
+        <f>B11/($F$9+1)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="9">
+        <v>100</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="21">
+        <f>B12/($F$9+1)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="9">
+        <v>50</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="21">
+        <f>B13/($F$9+1)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="21">
+        <f>B14/($F$9+1)</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="12">
+        <v>200</v>
+      </c>
+      <c r="D16" s="12">
+        <v>20</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
+        <v>49999</v>
+      </c>
+      <c r="G16" s="22">
+        <f>B16/($F$16+1)</f>
+        <v>0.02</v>
+      </c>
+      <c r="H16" s="13">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="9">
+        <v>500</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="21">
+        <f>B17/($F$16+1)</f>
+        <v>0.01</v>
+      </c>
+      <c r="H17" s="14">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="9">
+        <v>200</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="21">
+        <f>B18/($F$16+1)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H18" s="14">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="9">
+        <v>100</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="21">
+        <f>B19/($F$16+1)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="H19" s="14">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="9">
+        <v>50</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="21">
+        <f>B20/($F$16+1)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="H20" s="14">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="21">
+        <f>B21/($F$16+1)</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H21" s="14">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="11">
+        <v>50</v>
+      </c>
+      <c r="C23" s="12">
+        <v>100000</v>
+      </c>
+      <c r="D23" s="12">
+        <v>20</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0</v>
+      </c>
+      <c r="F23" s="12">
+        <v>49</v>
+      </c>
+      <c r="G23" s="22">
+        <f>B23/($F$23+1)</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="9">
+        <v>40</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="21">
+        <f>B24/($F$23+1)</f>
+        <v>0.8</v>
+      </c>
+      <c r="H24" s="14">
+        <v>1.0089999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+      <c r="B25" s="9">
+        <v>30</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="21">
+        <f>B25/($F$23+1)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H25" s="14">
+        <v>1.722</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="9">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
-        <v>4000</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="21">
+        <f>B26/($F$23+1)</f>
+        <v>0.2</v>
+      </c>
+      <c r="H26" s="14">
+        <v>3.0550000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="9">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="21">
+        <f>B27/($F$23+1)</f>
+        <v>0.02</v>
+      </c>
+      <c r="H27" s="14">
+        <v>3.6040000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="18">
+        <v>3.3759999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C29" s="12">
+        <v>20000</v>
+      </c>
+      <c r="D29" s="12">
         <v>20</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E29" s="12">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
-        <v>199</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="F29" s="12">
+        <v>9999</v>
+      </c>
+      <c r="G29" s="22">
+        <f>B29/($F$29+1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="H29" s="13">
+        <v>3.4540000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="9">
+        <v>500</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="21">
+        <f t="shared" ref="G30:G34" si="0">B30/($F$29+1)</f>
+        <v>0.05</v>
+      </c>
+      <c r="H30" s="14">
+        <v>2.1259999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
+      <c r="B31" s="9">
+        <v>250</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="21">
+        <f>B31/($F$29+1)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H31" s="14">
+        <v>1.4750000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
+      <c r="B32" s="9">
+        <v>100</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="21">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="H32" s="14">
+        <v>1.0649999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
+      <c r="B33" s="9">
+        <v>50</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="21">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H33" s="14">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
+      <c r="B34" s="9">
+        <v>1</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="21">
+        <f t="shared" si="0"/>
+        <v>1E-4</v>
+      </c>
+      <c r="H34" s="14">
+        <v>0.76700000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="18">
+        <v>0.70299999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="29"/>
+      <c r="B39" s="27"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="30" t="s">
         <v>12</v>
       </c>
+      <c r="B40" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="29"/>
+      <c r="B41" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="36">
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="E29:E35"/>
+    <mergeCell ref="F29:F35"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="F23:F28"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="E9:E15"/>
+    <mergeCell ref="F9:F15"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
   </mergeCells>
+  <conditionalFormatting sqref="H3:H8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H15">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:H22">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:H28">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:H35">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tiempos.xlsx
+++ b/tiempos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Documents\UNLaM\2024 Segundo cuatrimestre\Algoritmos y Estructuras de Datos\Yo\TP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1951E61F-1CF3-4CAF-9A33-635FE46A4562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38DB9A0-515D-4DF0-ABB6-40C401CAD40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{EA43530E-0890-4FCB-A21A-6B9A97CFC31F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>IMPLEMENTACIÓN</t>
   </si>
@@ -85,13 +85,19 @@
   <si>
     <t>0,000001688 seg</t>
   </si>
+  <si>
+    <t>DISTANCIA ENTRE TWEETS</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE TWEETS POSIBLES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -139,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -348,6 +354,82 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -355,97 +437,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -782,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B817E440-6C20-4DA4-983C-5C18F8D250F4}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,710 +907,759 @@
     <col min="3" max="3" width="27.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.5546875" style="1"/>
-    <col min="7" max="7" width="42.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="20" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.5546875" style="1"/>
+    <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="42.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="32.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" style="10" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
+    <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="28"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="36">
+        <v>167</v>
+      </c>
+      <c r="C3" s="38">
+        <v>100</v>
+      </c>
+      <c r="D3" s="38">
+        <v>20</v>
+      </c>
+      <c r="E3" s="38">
+        <v>0</v>
+      </c>
+      <c r="F3" s="38">
+        <v>49999</v>
+      </c>
+      <c r="G3" s="34">
+        <v>300</v>
+      </c>
+      <c r="H3" s="34">
+        <f>TRUNC(((F3-E3)/G3))+1</f>
+        <v>167</v>
+      </c>
+      <c r="I3" s="39">
+        <f>B3/$H$3</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="40">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="36">
+        <v>150</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="11">
+        <f t="shared" ref="I4:I8" si="0">B4/$H$3</f>
+        <v>0.89820359281437123</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="3">
+        <v>100</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.59880239520958078</v>
+      </c>
+      <c r="J5" s="6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="3">
+        <v>50</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.29940119760479039</v>
+      </c>
+      <c r="J6" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="3">
+        <v>10</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="11">
+        <f t="shared" si="0"/>
+        <v>5.9880239520958084E-2</v>
+      </c>
+      <c r="J7" s="6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="24">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="24">
+        <v>20</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0</v>
+      </c>
+      <c r="F9" s="24">
+        <v>3999</v>
+      </c>
+      <c r="G9" s="33">
+        <v>4</v>
+      </c>
+      <c r="H9" s="33">
+        <f>TRUNC(((F9-E9)/G9))+1</f>
+        <v>1000</v>
+      </c>
+      <c r="I9" s="12">
+        <f>B9/$H$9</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="3">
+        <v>500</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="11">
+        <f t="shared" ref="I10:I14" si="1">B10/$H$9</f>
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="3">
         <v>200</v>
       </c>
-      <c r="C3" s="12">
-        <v>4000</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="11">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="3">
+        <v>100</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="11">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="3">
+        <v>50</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="11">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="11">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="24">
+        <v>200</v>
+      </c>
+      <c r="D16" s="24">
         <v>20</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E16" s="24">
         <v>0</v>
       </c>
-      <c r="F3" s="12">
-        <v>199</v>
-      </c>
-      <c r="G3" s="22">
-        <f>B3/($F$3+1)</f>
+      <c r="F16" s="24">
+        <v>49999</v>
+      </c>
+      <c r="G16" s="33">
         <v>1</v>
       </c>
-      <c r="H3" s="13">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="9">
-        <v>150</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="21">
-        <f>B4/($F$3+1)</f>
-        <v>0.75</v>
-      </c>
-      <c r="H4" s="14">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="9">
+      <c r="H16" s="33">
+        <f>TRUNC(((F16-E16)/G16))+1</f>
+        <v>50000</v>
+      </c>
+      <c r="I16" s="12">
+        <f>B16/$H$16</f>
+        <v>0.02</v>
+      </c>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="3">
+        <v>500</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="11">
+        <f t="shared" ref="I17:I21" si="2">B17/$H$16</f>
+        <v>0.01</v>
+      </c>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="3">
+        <v>200</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="11">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="3">
         <v>100</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="21">
-        <f>B5/($F$3+1)</f>
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="14">
-        <v>0.115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="9">
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="11">
+        <f t="shared" si="2"/>
+        <v>2E-3</v>
+      </c>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="3">
         <v>50</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="21">
-        <f>B6/($F$3+1)</f>
-        <v>0.25</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0.14099999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="9">
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="11">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
+      <c r="B21" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="21">
-        <f>B7/($F$3+1)</f>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="11">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4">
+        <v>50</v>
+      </c>
+      <c r="C23" s="24">
+        <v>100000</v>
+      </c>
+      <c r="D23" s="24">
+        <v>20</v>
+      </c>
+      <c r="E23" s="24">
+        <v>0</v>
+      </c>
+      <c r="F23" s="24">
+        <v>49</v>
+      </c>
+      <c r="G23" s="33">
+        <v>1</v>
+      </c>
+      <c r="H23" s="33">
+        <f>TRUNC(((F23-E23)/G23))+1</f>
+        <v>50</v>
+      </c>
+      <c r="I23" s="12">
+        <f>B23/$H$23</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="3">
+        <v>40</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="11">
+        <f t="shared" ref="I24:I27" si="3">B24/$H$23</f>
+        <v>0.8</v>
+      </c>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+      <c r="B25" s="3">
+        <v>30</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="11">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="3">
+        <v>10</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="11">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="11">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C29" s="24">
+        <v>20000</v>
+      </c>
+      <c r="D29" s="24">
+        <v>20</v>
+      </c>
+      <c r="E29" s="24">
+        <v>0</v>
+      </c>
+      <c r="F29" s="24">
+        <v>9999</v>
+      </c>
+      <c r="G29" s="33">
+        <v>1</v>
+      </c>
+      <c r="H29" s="33">
+        <f>TRUNC(((F29-E29)/G29))+1</f>
+        <v>10000</v>
+      </c>
+      <c r="I29" s="12">
+        <f>B29/$H$29</f>
+        <v>0.1</v>
+      </c>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="3">
+        <v>500</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="11">
+        <f t="shared" ref="I30:I34" si="4">B30/$H$29</f>
+        <v>0.05</v>
+      </c>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
+      <c r="B31" s="3">
+        <v>250</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="11">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
+      <c r="B32" s="3">
+        <v>100</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="11">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
+      <c r="B33" s="3">
+        <v>50</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="11">
+        <f t="shared" si="4"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H7" s="14">
-        <v>0.151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="11">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B35" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="24" t="s">
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="18">
-        <v>0.13800000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C9" s="12">
-        <v>2000</v>
-      </c>
-      <c r="D9" s="12">
-        <v>20</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
-        <v>49999</v>
-      </c>
-      <c r="G9" s="22">
-        <f>B9/($F$9+1)</f>
-        <v>0.02</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0.42799999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="9">
-        <v>500</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="21">
-        <f>B10/($F$9+1)</f>
-        <v>0.01</v>
-      </c>
-      <c r="H10" s="14">
-        <v>0.30199999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="9">
-        <v>200</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="21">
-        <f>B11/($F$9+1)</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H11" s="14">
-        <v>0.219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="9">
-        <v>100</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="21">
-        <f>B12/($F$9+1)</f>
-        <v>2E-3</v>
-      </c>
-      <c r="H12" s="14">
-        <v>0.189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="9">
-        <v>50</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="21">
-        <f>B13/($F$9+1)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0.17199999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="9">
-        <v>1</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="21">
-        <f>B14/($F$9+1)</f>
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="H14" s="14">
-        <v>0.157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="18">
-        <v>0.151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C16" s="12">
-        <v>200</v>
-      </c>
-      <c r="D16" s="12">
-        <v>20</v>
-      </c>
-      <c r="E16" s="12">
-        <v>0</v>
-      </c>
-      <c r="F16" s="12">
-        <v>49999</v>
-      </c>
-      <c r="G16" s="22">
-        <f>B16/($F$16+1)</f>
-        <v>0.02</v>
-      </c>
-      <c r="H16" s="13">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="9">
-        <v>500</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="21">
-        <f>B17/($F$16+1)</f>
-        <v>0.01</v>
-      </c>
-      <c r="H17" s="14">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="9">
-        <v>200</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="21">
-        <f>B18/($F$16+1)</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H18" s="14">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="9">
-        <v>100</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="21">
-        <f>B19/($F$16+1)</f>
-        <v>2E-3</v>
-      </c>
-      <c r="H19" s="14">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="9">
-        <v>50</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="21">
-        <f>B20/($F$16+1)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="H20" s="14">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="9">
-        <v>1</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="21">
-        <f>B21/($F$16+1)</f>
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="H21" s="14">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="18">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="11">
-        <v>50</v>
-      </c>
-      <c r="C23" s="12">
-        <v>100000</v>
-      </c>
-      <c r="D23" s="12">
-        <v>20</v>
-      </c>
-      <c r="E23" s="12">
-        <v>0</v>
-      </c>
-      <c r="F23" s="12">
-        <v>49</v>
-      </c>
-      <c r="G23" s="22">
-        <f>B23/($F$23+1)</f>
-        <v>1</v>
-      </c>
-      <c r="H23" s="13">
-        <v>0.19700000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
-      <c r="B24" s="9">
-        <v>40</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="21">
-        <f>B24/($F$23+1)</f>
-        <v>0.8</v>
-      </c>
-      <c r="H24" s="14">
-        <v>1.0089999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-      <c r="B25" s="9">
-        <v>30</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="21">
-        <f>B25/($F$23+1)</f>
-        <v>0.6</v>
-      </c>
-      <c r="H25" s="14">
-        <v>1.722</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="9">
-        <v>10</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="21">
-        <f>B26/($F$23+1)</f>
-        <v>0.2</v>
-      </c>
-      <c r="H26" s="14">
-        <v>3.0550000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
-      <c r="B27" s="9">
-        <v>1</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="21">
-        <f>B27/($F$23+1)</f>
-        <v>0.02</v>
-      </c>
-      <c r="H27" s="14">
-        <v>3.6040000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="18">
-        <v>3.3759999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C29" s="12">
-        <v>20000</v>
-      </c>
-      <c r="D29" s="12">
-        <v>20</v>
-      </c>
-      <c r="E29" s="12">
-        <v>0</v>
-      </c>
-      <c r="F29" s="12">
-        <v>9999</v>
-      </c>
-      <c r="G29" s="22">
-        <f>B29/($F$29+1)</f>
-        <v>0.1</v>
-      </c>
-      <c r="H29" s="13">
-        <v>3.4540000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
-      <c r="B30" s="9">
-        <v>500</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="21">
-        <f t="shared" ref="G30:G34" si="0">B30/($F$29+1)</f>
-        <v>0.05</v>
-      </c>
-      <c r="H30" s="14">
-        <v>2.1259999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
-      <c r="B31" s="9">
-        <v>250</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="21">
-        <f>B31/($F$29+1)</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H31" s="14">
-        <v>1.4750000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
-      <c r="B32" s="9">
-        <v>100</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="21">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
-      </c>
-      <c r="H32" s="14">
-        <v>1.0649999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
-      <c r="B33" s="9">
-        <v>50</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="21">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H33" s="14">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
-      <c r="B34" s="9">
-        <v>1</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="21">
-        <f t="shared" si="0"/>
-        <v>1E-4</v>
-      </c>
-      <c r="H34" s="14">
-        <v>0.76700000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="18">
-        <v>0.70299999999999996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="28" t="s">
+      <c r="J35" s="9"/>
+    </row>
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="29"/>
-      <c r="B39" s="27"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="30" t="s">
+    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="15"/>
+      <c r="B39" s="18"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="29"/>
-      <c r="B41" s="27"/>
+    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="15"/>
+      <c r="B41" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
+  <mergeCells count="48">
+    <mergeCell ref="G23:G28"/>
+    <mergeCell ref="H23:H28"/>
+    <mergeCell ref="G29:G35"/>
+    <mergeCell ref="H29:H35"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="G9:G15"/>
+    <mergeCell ref="H9:H15"/>
+    <mergeCell ref="G16:G22"/>
+    <mergeCell ref="H16:H22"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="D29:D35"/>
-    <mergeCell ref="E29:E35"/>
-    <mergeCell ref="F29:F35"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="F23:F28"/>
-    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="C16:C22"/>
     <mergeCell ref="D16:D22"/>
     <mergeCell ref="E16:E22"/>
@@ -1513,14 +1674,24 @@
     <mergeCell ref="F3:F8"/>
     <mergeCell ref="E9:E15"/>
     <mergeCell ref="F9:F15"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="E29:E35"/>
+    <mergeCell ref="F29:F35"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="F23:F28"/>
+    <mergeCell ref="A16:A21"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3:H8">
+  <conditionalFormatting sqref="J3:J8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1532,7 +1703,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H15">
+  <conditionalFormatting sqref="J9:J15">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1544,7 +1715,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16:H22">
+  <conditionalFormatting sqref="J16:J22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1556,7 +1727,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:H28">
+  <conditionalFormatting sqref="J23:J28">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1568,7 +1739,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29:H35">
+  <conditionalFormatting sqref="J29:J35">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/tiempos.xlsx
+++ b/tiempos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Documents\UNLaM\2024 Segundo cuatrimestre\Algoritmos y Estructuras de Datos\Yo\TP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38DB9A0-515D-4DF0-ABB6-40C401CAD40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B004F345-8125-489A-9C81-81397D2C30AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{EA43530E-0890-4FCB-A21A-6B9A97CFC31F}"/>
   </bookViews>
@@ -478,6 +478,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -517,6 +526,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -542,21 +557,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -894,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B817E440-6C20-4DA4-983C-5C18F8D250F4}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -917,159 +917,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="31" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="28"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36">
-        <v>167</v>
-      </c>
-      <c r="C3" s="38">
-        <v>100</v>
-      </c>
-      <c r="D3" s="38">
+      <c r="B3" s="4">
+        <v>50</v>
+      </c>
+      <c r="C3" s="27">
+        <v>100000</v>
+      </c>
+      <c r="D3" s="27">
         <v>20</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="27">
         <v>0</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="27">
         <v>49999</v>
       </c>
-      <c r="G3" s="34">
-        <v>300</v>
-      </c>
-      <c r="H3" s="34">
+      <c r="G3" s="38">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="38">
         <f>TRUNC(((F3-E3)/G3))+1</f>
-        <v>167</v>
-      </c>
-      <c r="I3" s="39">
+        <v>50</v>
+      </c>
+      <c r="I3" s="12">
         <f>B3/$H$3</f>
         <v>1</v>
       </c>
-      <c r="J3" s="40">
-        <v>1E-3</v>
+      <c r="J3" s="5">
+        <v>0.19900000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="36">
-        <v>150</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="3">
+        <v>40</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="11">
-        <f t="shared" ref="I4:I8" si="0">B4/$H$3</f>
-        <v>0.89820359281437123</v>
+        <f>B4/$H$3</f>
+        <v>0.8</v>
       </c>
       <c r="J4" s="6">
-        <v>2E-3</v>
+        <v>1.744</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="3">
-        <v>100</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+        <v>30</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
       <c r="I5" s="11">
-        <f t="shared" si="0"/>
-        <v>0.59880239520958078</v>
+        <f>B5/$H$3</f>
+        <v>0.6</v>
       </c>
       <c r="J5" s="6">
-        <v>4.0000000000000001E-3</v>
+        <v>3.194</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="3">
-        <v>50</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+        <v>10</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="11">
-        <f t="shared" si="0"/>
-        <v>0.29940119760479039</v>
+        <f>B6/$H$3</f>
+        <v>0.2</v>
       </c>
       <c r="J6" s="6">
-        <v>6.0000000000000001E-3</v>
+        <v>5.9050000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="3">
-        <v>10</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
+        <v>1</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="11">
-        <f t="shared" si="0"/>
-        <v>5.9880239520958084E-2</v>
+        <f>B7/$H$3</f>
+        <v>0.02</v>
       </c>
       <c r="J7" s="6">
-        <v>7.0000000000000001E-3</v>
+        <v>6.734</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1079,579 +1079,576 @@
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="13" t="s">
         <v>9</v>
       </c>
       <c r="J8" s="9">
-        <v>7.0000000000000001E-3</v>
+        <v>6.4989999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="4">
-        <v>1000</v>
-      </c>
-      <c r="C9" s="24">
-        <v>2000</v>
-      </c>
-      <c r="D9" s="24">
+      <c r="B9" s="14">
+        <v>167</v>
+      </c>
+      <c r="C9" s="31">
+        <v>100</v>
+      </c>
+      <c r="D9" s="31">
         <v>20</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="31">
         <v>0</v>
       </c>
-      <c r="F9" s="24">
-        <v>3999</v>
-      </c>
-      <c r="G9" s="33">
-        <v>4</v>
-      </c>
-      <c r="H9" s="33">
+      <c r="F9" s="31">
+        <v>49999</v>
+      </c>
+      <c r="G9" s="39">
+        <v>300</v>
+      </c>
+      <c r="H9" s="39">
         <f>TRUNC(((F9-E9)/G9))+1</f>
-        <v>1000</v>
-      </c>
-      <c r="I9" s="12">
+        <v>167</v>
+      </c>
+      <c r="I9" s="15">
         <f>B9/$H$9</f>
         <v>1</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="16">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="14">
+        <v>150</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="11">
+        <f>B10/$H$9</f>
+        <v>0.89820359281437123</v>
+      </c>
+      <c r="J10" s="6">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="B11" s="3">
+        <v>100</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="11">
+        <f>B11/$H$9</f>
+        <v>0.59880239520958078</v>
+      </c>
+      <c r="J11" s="6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="3">
+        <v>50</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="11">
+        <f>B12/$H$9</f>
+        <v>0.29940119760479039</v>
+      </c>
+      <c r="J12" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="11">
+        <f>B13/$H$9</f>
+        <v>5.9880239520958084E-2</v>
+      </c>
+      <c r="J13" s="6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <v>200</v>
+      </c>
+      <c r="C15" s="27">
+        <v>200000</v>
+      </c>
+      <c r="D15" s="27">
+        <v>20</v>
+      </c>
+      <c r="E15" s="27">
+        <v>0</v>
+      </c>
+      <c r="F15" s="27">
+        <v>49999</v>
+      </c>
+      <c r="G15" s="38">
+        <v>250</v>
+      </c>
+      <c r="H15" s="38">
+        <f>TRUNC(((F15-E15)/G15))+1</f>
+        <v>200</v>
+      </c>
+      <c r="I15" s="12">
+        <f>B15/$H$15</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1.3160000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="26"/>
+      <c r="B16" s="3">
+        <v>150</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="11">
+        <f>B16/$H$15</f>
+        <v>0.75</v>
+      </c>
+      <c r="J16" s="6">
+        <v>5.5279999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
+      <c r="B17" s="3">
+        <v>100</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="11">
+        <f>B17/$H$15</f>
+        <v>0.5</v>
+      </c>
+      <c r="J17" s="6">
+        <v>9.0530000000000008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
+      <c r="B18" s="3">
+        <v>50</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="11">
+        <f>B18/$H$15</f>
+        <v>0.25</v>
+      </c>
+      <c r="J18" s="6">
+        <v>12.037000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
+      <c r="B19" s="3">
+        <v>10</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="11">
+        <f>B19/$H$15</f>
+        <v>0.05</v>
+      </c>
+      <c r="J19" s="6">
+        <v>13.776999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="9">
+        <v>13.412000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4">
+        <v>4000</v>
+      </c>
+      <c r="C21" s="27">
+        <v>200</v>
+      </c>
+      <c r="D21" s="27">
+        <v>20</v>
+      </c>
+      <c r="E21" s="27">
+        <v>0</v>
+      </c>
+      <c r="F21" s="27">
+        <v>49999</v>
+      </c>
+      <c r="G21" s="38">
+        <v>1</v>
+      </c>
+      <c r="H21" s="38">
+        <f>TRUNC(((F21-E21)/G21))+1</f>
+        <v>50000</v>
+      </c>
+      <c r="I21" s="12">
+        <f>B21/$H$21</f>
+        <v>0.08</v>
+      </c>
+      <c r="J21" s="5">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="26"/>
+      <c r="B22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="11">
+        <f>B22/$H$21</f>
+        <v>0.04</v>
+      </c>
+      <c r="J22" s="6">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="26"/>
+      <c r="B23" s="3">
         <v>500</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="11">
-        <f t="shared" ref="I10:I14" si="1">B10/$H$9</f>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="11">
+        <f>B23/$H$21</f>
+        <v>0.01</v>
+      </c>
+      <c r="J23" s="6">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="26"/>
+      <c r="B24" s="3">
+        <v>100</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="11">
+        <f>B24/$H$21</f>
+        <v>2E-3</v>
+      </c>
+      <c r="J24" s="6">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="26"/>
+      <c r="B25" s="3">
+        <v>10</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="11">
+        <f>B25/$H$21</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="J25" s="6">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="9">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C27" s="27">
+        <v>10000</v>
+      </c>
+      <c r="D27" s="27">
+        <v>20</v>
+      </c>
+      <c r="E27" s="27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="27">
+        <v>49999</v>
+      </c>
+      <c r="G27" s="38">
+        <v>1</v>
+      </c>
+      <c r="H27" s="38">
+        <f>TRUNC(((F27-E27)/G27))+1</f>
+        <v>50000</v>
+      </c>
+      <c r="I27" s="12">
+        <f>B27/$H$27</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="5">
+        <v>53.11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="26"/>
+      <c r="B28" s="3">
+        <v>25000</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="11">
+        <f t="shared" ref="I28:I31" si="0">B28/$H$27</f>
         <v>0.5</v>
       </c>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="3">
-        <v>200</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="11">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="3">
+      <c r="J28" s="6">
+        <v>51.189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="26"/>
+      <c r="B29" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="11">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="J29" s="6">
+        <v>8.9890000000000008</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="26"/>
+      <c r="B30" s="3">
         <v>100</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="11">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="3">
-        <v>50</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="11">
-        <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="11">
-        <f t="shared" si="1"/>
-        <v>1E-3</v>
-      </c>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="11">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="26"/>
+      <c r="B31" s="3">
+        <v>10</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="11">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0.754</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B32" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="13" t="s">
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1000</v>
-      </c>
-      <c r="C16" s="24">
-        <v>200</v>
-      </c>
-      <c r="D16" s="24">
-        <v>20</v>
-      </c>
-      <c r="E16" s="24">
-        <v>0</v>
-      </c>
-      <c r="F16" s="24">
-        <v>49999</v>
-      </c>
-      <c r="G16" s="33">
-        <v>1</v>
-      </c>
-      <c r="H16" s="33">
-        <f>TRUNC(((F16-E16)/G16))+1</f>
-        <v>50000</v>
-      </c>
-      <c r="I16" s="12">
-        <f>B16/$H$16</f>
-        <v>0.02</v>
-      </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="3">
-        <v>500</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="11">
-        <f t="shared" ref="I17:I21" si="2">B17/$H$16</f>
-        <v>0.01</v>
-      </c>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="3">
-        <v>200</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="11">
-        <f t="shared" si="2"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="3">
-        <v>100</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="11">
-        <f t="shared" si="2"/>
-        <v>2E-3</v>
-      </c>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="3">
-        <v>50</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="11">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
-      </c>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="11">
-        <f t="shared" si="2"/>
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="4">
-        <v>50</v>
-      </c>
-      <c r="C23" s="24">
-        <v>100000</v>
-      </c>
-      <c r="D23" s="24">
-        <v>20</v>
-      </c>
-      <c r="E23" s="24">
-        <v>0</v>
-      </c>
-      <c r="F23" s="24">
-        <v>49</v>
-      </c>
-      <c r="G23" s="33">
-        <v>1</v>
-      </c>
-      <c r="H23" s="33">
-        <f>TRUNC(((F23-E23)/G23))+1</f>
-        <v>50</v>
-      </c>
-      <c r="I23" s="12">
-        <f>B23/$H$23</f>
-        <v>1</v>
-      </c>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
-      <c r="B24" s="3">
-        <v>40</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="11">
-        <f t="shared" ref="I24:I27" si="3">B24/$H$23</f>
-        <v>0.8</v>
-      </c>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-      <c r="B25" s="3">
-        <v>30</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="11">
-        <f t="shared" si="3"/>
-        <v>0.6</v>
-      </c>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="3">
-        <v>10</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="11">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="11">
-        <f t="shared" si="3"/>
-        <v>0.02</v>
-      </c>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="4">
-        <v>1000</v>
-      </c>
-      <c r="C29" s="24">
-        <v>20000</v>
-      </c>
-      <c r="D29" s="24">
-        <v>20</v>
-      </c>
-      <c r="E29" s="24">
-        <v>0</v>
-      </c>
-      <c r="F29" s="24">
-        <v>9999</v>
-      </c>
-      <c r="G29" s="33">
-        <v>1</v>
-      </c>
-      <c r="H29" s="33">
-        <f>TRUNC(((F29-E29)/G29))+1</f>
-        <v>10000</v>
-      </c>
-      <c r="I29" s="12">
-        <f>B29/$H$29</f>
-        <v>0.1</v>
-      </c>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
-      <c r="B30" s="3">
-        <v>500</v>
-      </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="11">
-        <f t="shared" ref="I30:I34" si="4">B30/$H$29</f>
-        <v>0.05</v>
-      </c>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
-      <c r="B31" s="3">
-        <v>250</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="11">
-        <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
-      <c r="B32" s="3">
-        <v>100</v>
-      </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="11">
-        <f t="shared" si="4"/>
-        <v>0.01</v>
-      </c>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
-      <c r="B33" s="3">
-        <v>50</v>
-      </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="11">
-        <f t="shared" si="4"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
-      <c r="B34" s="3">
-        <v>1</v>
-      </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="11">
-        <f t="shared" si="4"/>
-        <v>1E-4</v>
-      </c>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J35" s="9"/>
-    </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+      <c r="J32" s="9">
+        <v>0.70799999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B35" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="15"/>
-      <c r="B39" s="18"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="14" t="s">
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="18"/>
+      <c r="B36" s="21"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B37" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="15"/>
-      <c r="B41" s="18"/>
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="18"/>
+      <c r="B38" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="G23:G28"/>
-    <mergeCell ref="H23:H28"/>
-    <mergeCell ref="G29:G35"/>
-    <mergeCell ref="H29:H35"/>
     <mergeCell ref="G3:G8"/>
     <mergeCell ref="H3:H8"/>
-    <mergeCell ref="G9:G15"/>
-    <mergeCell ref="H9:H15"/>
-    <mergeCell ref="G16:G22"/>
-    <mergeCell ref="H16:H22"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="H27:H32"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="H15:H20"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="H21:H26"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:A2"/>
@@ -1660,38 +1657,50 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="D16:D22"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="F27:F32"/>
     <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="D9:D15"/>
     <mergeCell ref="C3:C8"/>
     <mergeCell ref="D3:D8"/>
     <mergeCell ref="E3:E8"/>
     <mergeCell ref="F3:F8"/>
-    <mergeCell ref="E9:E15"/>
-    <mergeCell ref="F9:F15"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="D29:D35"/>
-    <mergeCell ref="E29:E35"/>
-    <mergeCell ref="F29:F35"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="F23:F28"/>
-    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A21:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J8">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J14">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1703,8 +1712,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9:J15">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="J15:J20">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percent" val="50"/>
@@ -1715,8 +1724,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16:J22">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="J21:J26">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percent" val="50"/>
@@ -1727,20 +1736,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23:J28">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29:J35">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="J27:J32">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percent" val="50"/>
